--- a/D_Revenue_rating/Stall Revenue.xlsx
+++ b/D_Revenue_rating/Stall Revenue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EIE3280 PROJECT\Revenue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\EIE3280\canteen_eva\D_Revenue_rating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C84334-05AE-406D-9B8E-AC09368A93C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2191021-508F-45E7-ACBF-28BA0A999686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="12196" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学一" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="159">
   <si>
     <t>上园/下园</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,10 @@
   </si>
   <si>
     <t>总平均：125208.695511655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,10 +1207,43 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1234,36 +1271,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1325,9 +1332,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,14 +1619,14 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="8" width="8.6640625" style="1"/>
     <col min="9" max="17" width="8.6640625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1638,127 +1642,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="71" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="71" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="73" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="73" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="73" t="s">
+      <c r="O3" s="64"/>
+      <c r="P3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="71" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="71" t="s">
+      <c r="S3" s="59"/>
+      <c r="T3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="72"/>
-      <c r="V3" s="71" t="s">
+      <c r="U3" s="59"/>
+      <c r="V3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="72"/>
-      <c r="X3" s="71" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="72" t="s">
+      <c r="Y3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="71" t="s">
+      <c r="Z3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="71" t="s">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="71" t="s">
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="71" t="s">
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="71" t="s">
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="68" t="s">
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="69"/>
-    </row>
-    <row r="4" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK3" s="66"/>
+    </row>
+    <row r="4" spans="1:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="58"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="68"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -1869,7 +1873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1909,7 +1913,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +1953,7 @@
       <c r="AJ7" s="3"/>
       <c r="AK7" s="4"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +1993,7 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -2029,7 +2033,7 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="4"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2069,7 +2073,7 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2113,7 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="4"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -2149,7 +2153,7 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -2189,7 +2193,7 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="4"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>1822326.27</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>1884476.6199999996</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>2268031.39</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2577,7 +2581,7 @@
         <v>2287156.77</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="25" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:37" ht="24.75" x14ac:dyDescent="0.65">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -2588,22 +2592,22 @@
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="65" t="s">
+      <c r="J18" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="65" t="s">
+      <c r="K18" s="71"/>
+      <c r="L18" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="60"/>
-      <c r="N18" s="65" t="s">
+      <c r="M18" s="71"/>
+      <c r="N18" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="65" t="s">
+      <c r="O18" s="71"/>
+      <c r="P18" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="60"/>
+      <c r="Q18" s="71"/>
       <c r="R18" s="3"/>
       <c r="S18" s="4"/>
       <c r="T18" s="3"/>
@@ -2625,7 +2629,7 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -2635,18 +2639,18 @@
       <c r="C19" s="9">
         <v>187500</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="63" t="s">
+      <c r="E19" s="71"/>
+      <c r="F19" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="63" t="s">
+      <c r="G19" s="71"/>
+      <c r="H19" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="60"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
       <c r="L19" s="3"/>
@@ -2716,7 +2720,7 @@
         <v>351978.45999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
@@ -2726,12 +2730,12 @@
       <c r="C20" s="6">
         <v>300236</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="62"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="7" t="s">
         <v>34</v>
       </c>
@@ -2762,10 +2766,10 @@
       <c r="S20" s="6">
         <v>140481</v>
       </c>
-      <c r="T20" s="66" t="s">
+      <c r="T20" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="U20" s="67"/>
+      <c r="U20" s="78"/>
       <c r="V20" s="7" t="s">
         <v>34</v>
       </c>
@@ -2816,12 +2820,12 @@
         <v>2475510.17</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="20.25" x14ac:dyDescent="0.35">
       <c r="C22" s="29" t="s">
         <v>40</v>
       </c>
@@ -2891,7 +2895,7 @@
       </c>
       <c r="AJ22" s="32"/>
     </row>
-    <row r="23" spans="1:37" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -2965,23 +2969,17 @@
     <sortCondition ref="N23"/>
   </sortState>
   <mergeCells count="44">
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="T20:U20"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -2998,17 +2996,23 @@
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3024,13 +3028,13 @@
       <selection activeCell="H2" sqref="H2:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="47.1640625" customWidth="1"/>
+    <col min="8" max="8" width="47.1328125" customWidth="1"/>
     <col min="15" max="15" width="40" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>83</v>
       </c>
@@ -3052,8 +3056,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="83" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -3080,8 +3084,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="83"/>
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -3106,8 +3110,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="83"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -3132,8 +3136,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="83"/>
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3158,8 +3162,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="83"/>
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -3184,8 +3188,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="83"/>
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -3210,8 +3214,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="83"/>
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -3236,8 +3240,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="83"/>
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -3262,8 +3266,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="83"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -3288,8 +3292,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="83"/>
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -3314,8 +3318,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="83"/>
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -3340,8 +3344,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="83"/>
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -3366,8 +3370,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="83"/>
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -3392,8 +3396,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="83"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -3418,8 +3422,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="83"/>
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -3444,8 +3448,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="83"/>
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -3470,8 +3474,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="83"/>
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -3496,8 +3500,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="83" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="36" t="s">
@@ -3524,8 +3528,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="83"/>
       <c r="B20" s="36" t="s">
         <v>76</v>
       </c>
@@ -3550,8 +3554,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="83"/>
       <c r="B21" s="36" t="s">
         <v>77</v>
       </c>
@@ -3576,8 +3580,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="83"/>
       <c r="B22" s="36" t="s">
         <v>78</v>
       </c>
@@ -3602,8 +3606,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="83"/>
       <c r="B23" s="36" t="s">
         <v>44</v>
       </c>
@@ -3629,8 +3633,8 @@
       </c>
       <c r="O23" s="46"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="83" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -3653,8 +3657,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="83"/>
       <c r="B25" s="38" t="s">
         <v>53</v>
       </c>
@@ -3675,8 +3679,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="83"/>
       <c r="B26" s="38" t="s">
         <v>54</v>
       </c>
@@ -3697,8 +3701,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="83"/>
       <c r="B27" s="38" t="s">
         <v>55</v>
       </c>
@@ -3723,8 +3727,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="83" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="37" t="s">
@@ -3751,8 +3755,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="83"/>
       <c r="B29" s="37" t="s">
         <v>77</v>
       </c>
@@ -3777,8 +3781,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="83"/>
       <c r="B30" s="37" t="s">
         <v>59</v>
       </c>
@@ -3803,8 +3807,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="83"/>
       <c r="B31" s="37" t="s">
         <v>80</v>
       </c>
@@ -3829,8 +3833,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="83"/>
       <c r="B32" s="37" t="s">
         <v>81</v>
       </c>
@@ -3855,8 +3859,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="83"/>
       <c r="B33" s="37" t="s">
         <v>44</v>
       </c>
@@ -3881,8 +3885,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="83" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="43" t="s">
@@ -3909,8 +3913,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="83"/>
       <c r="B35" s="43" t="s">
         <v>54</v>
       </c>
@@ -3935,8 +3939,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="83"/>
       <c r="B36" s="43" t="s">
         <v>36</v>
       </c>
@@ -3961,8 +3965,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="83"/>
       <c r="B37" s="43" t="s">
         <v>59</v>
       </c>
@@ -3987,8 +3991,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="83"/>
       <c r="B38" s="43" t="s">
         <v>64</v>
       </c>
@@ -4013,8 +4017,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="83"/>
       <c r="B39" s="43" t="s">
         <v>65</v>
       </c>
@@ -4039,8 +4043,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="83"/>
       <c r="B40" s="43" t="s">
         <v>66</v>
       </c>
@@ -4065,8 +4069,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="83"/>
       <c r="B41" s="43" t="s">
         <v>44</v>
       </c>
@@ -4091,8 +4095,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="83"/>
       <c r="B42" s="43" t="s">
         <v>67</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G43" t="s">
         <v>36</v>
       </c>
@@ -4132,7 +4136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G44" t="s">
         <v>54</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
         <v>82</v>
       </c>
@@ -4162,60 +4166,60 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="87" t="s">
+    <row r="46" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="89"/>
-      <c r="G47" s="78" t="s">
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
+      <c r="G47" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="80"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="92"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="83"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="90"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="83"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="92"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="83"/>
-    </row>
-    <row r="51" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="93"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="95"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="86"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="91"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="93"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="84"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="91"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="93"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="84"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="91"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="93"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="84"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="94"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="96"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4241,14 +4245,14 @@
       <selection activeCell="F6" sqref="F6:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="8.6640625" style="10"/>
-    <col min="5" max="5" width="13.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -4297,7 +4301,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4305,7 +4309,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -4327,7 +4331,7 @@
         <v>374736.45000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>81898.33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -4359,7 +4363,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>328468.24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -4403,7 +4407,7 @@
         <v>548008.88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
@@ -4425,14 +4429,14 @@
         <v>854383.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="13">
         <v>345379.09</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="97" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="13">
@@ -4449,14 +4453,14 @@
         <v>558017.99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="13">
         <v>333585.07</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="13">
         <v>93709.5</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>497232.46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>660524.78999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>728916.55999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>833587.89999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -4567,27 +4571,27 @@
         <v>451190.27999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B22" s="15" t="s">
         <v>45</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <f>AVERAGE(B6:B17)</f>
         <v>326287.98818181822</v>
@@ -4643,10 +4647,10 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" customWidth="1"/>
+    <col min="3" max="3" width="17.06640625" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" customWidth="1"/>
     <col min="5" max="12" width="8.6640625" hidden="1" customWidth="1"/>
     <col min="13" max="15" width="8.6640625" customWidth="1"/>
@@ -4654,7 +4658,7 @@
     <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
         <v>141</v>
       </c>
@@ -4719,8 +4723,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="83" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -4759,8 +4763,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="83"/>
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -4783,8 +4787,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" s="83"/>
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -4806,8 +4810,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="83"/>
       <c r="B5" t="s">
         <v>150</v>
       </c>
@@ -4829,8 +4833,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="83"/>
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -4852,8 +4856,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="83"/>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -4890,8 +4894,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8" s="83"/>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -4928,8 +4932,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" s="83"/>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -4966,8 +4970,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10" s="83"/>
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -5004,8 +5008,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="83"/>
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -5042,8 +5046,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A12" s="83"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -5080,8 +5084,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="83"/>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -5118,8 +5122,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A14" s="83"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -5156,8 +5160,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A15" s="83"/>
       <c r="B15" s="47" t="s">
         <v>145</v>
       </c>
@@ -5188,8 +5192,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A16" s="83"/>
       <c r="B16" s="48" t="s">
         <v>146</v>
       </c>
@@ -5220,8 +5224,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="83"/>
       <c r="B17" s="48" t="s">
         <v>147</v>
       </c>
@@ -5252,8 +5256,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" s="83"/>
       <c r="B18" s="47" t="s">
         <v>156</v>
       </c>
@@ -5287,8 +5291,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="83" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
@@ -5343,8 +5347,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" s="83"/>
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -5375,8 +5379,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="83"/>
       <c r="B21" t="s">
         <v>77</v>
       </c>
@@ -5429,8 +5433,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="83"/>
       <c r="B22" s="47" t="s">
         <v>154</v>
       </c>
@@ -5483,8 +5487,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A23" s="83"/>
       <c r="B23" s="48" t="s">
         <v>155</v>
       </c>
@@ -5537,8 +5541,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="83"/>
       <c r="B24" t="s">
         <v>136</v>
       </c>
@@ -5553,8 +5557,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="83"/>
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -5569,8 +5573,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="83"/>
       <c r="B26" t="s">
         <v>138</v>
       </c>
@@ -5585,8 +5589,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27" s="83" t="s">
         <v>71</v>
       </c>
       <c r="B27" t="s">
@@ -5646,8 +5650,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A28" s="83"/>
       <c r="B28" t="s">
         <v>53</v>
       </c>
@@ -5705,8 +5709,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" s="83"/>
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -5764,8 +5768,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30" s="83"/>
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -5823,8 +5827,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="82" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31" s="83" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="s">
@@ -5887,8 +5891,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A32" s="83"/>
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -5949,8 +5953,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A33" s="83"/>
       <c r="B33" t="s">
         <v>59</v>
       </c>
@@ -6011,8 +6015,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A34" s="83"/>
       <c r="B34" t="s">
         <v>80</v>
       </c>
@@ -6070,8 +6074,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A35" s="83"/>
       <c r="B35" t="s">
         <v>81</v>
       </c>
@@ -6126,8 +6130,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A36" s="83"/>
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -6179,8 +6183,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="82" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A37" s="83" t="s">
         <v>140</v>
       </c>
       <c r="B37" t="s">
@@ -6237,8 +6241,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A38" s="83"/>
       <c r="B38" t="s">
         <v>139</v>
       </c>
@@ -6263,8 +6267,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A39" s="83"/>
       <c r="B39" t="s">
         <v>66</v>
       </c>
@@ -6319,8 +6323,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A40" s="83"/>
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -6369,8 +6373,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A41" s="83"/>
       <c r="B41" t="s">
         <v>64</v>
       </c>
@@ -6425,8 +6429,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A42" s="83"/>
       <c r="B42" t="s">
         <v>59</v>
       </c>
@@ -6481,8 +6485,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A43" s="83"/>
       <c r="B43" t="s">
         <v>36</v>
       </c>
@@ -6537,8 +6541,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A44" s="83"/>
       <c r="B44" t="s">
         <v>54</v>
       </c>
@@ -6593,8 +6597,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A45" s="83"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
@@ -6649,7 +6653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="M46">
         <f t="shared" ref="M46:S46" si="2">SUM(M2:M45)</f>
         <v>4429811.0600000005</v>
@@ -6679,13 +6683,13 @@
         <v>165563</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="Q48">
         <f>M46+N46+O46+P46+Q46+R46+S46</f>
         <v>21500409.780000001</v>
       </c>
     </row>
-    <row r="50" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="20:20" x14ac:dyDescent="0.4">
       <c r="T50" t="s">
         <v>157</v>
       </c>
@@ -6707,18 +6711,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DA68FE-723F-4FA3-8E2A-F804D473014A}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
         <v>141</v>
       </c>
@@ -6747,17 +6751,17 @@
         <v>2023.2</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L1" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="51">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="M1" s="51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="83" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -6786,19 +6790,19 @@
       </c>
       <c r="J2" s="49"/>
       <c r="K2">
-        <f>AVERAGE(E2:I2)</f>
+        <f t="shared" ref="K2:K18" si="0">AVERAGE(E2:I2)</f>
         <v>427215.33599999995</v>
       </c>
       <c r="L2">
-        <f>RANK(K2,K:K)</f>
+        <f t="shared" ref="L2:L46" si="1">RANK(K2,K:K)</f>
         <v>2</v>
       </c>
       <c r="M2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
+        <v>427215.33599999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="83"/>
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -6825,19 +6829,19 @@
       </c>
       <c r="J3" s="49"/>
       <c r="K3">
-        <f>AVERAGE(E3:I3)</f>
+        <f t="shared" si="0"/>
         <v>93655.4</v>
       </c>
       <c r="L3">
-        <f>RANK(K3,K:K)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+        <v>93655.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="83"/>
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -6864,19 +6868,19 @@
       </c>
       <c r="J4" s="49"/>
       <c r="K4">
-        <f>AVERAGE(E4:I4)</f>
+        <f t="shared" si="0"/>
         <v>1301596.3999999999</v>
       </c>
       <c r="L4">
-        <f>RANK(K4,K:K)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+        <v>1301596.3999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="83"/>
       <c r="B5" t="s">
         <v>150</v>
       </c>
@@ -6903,19 +6907,19 @@
       </c>
       <c r="J5" s="49"/>
       <c r="K5">
-        <f>AVERAGE(E5:I5)</f>
+        <f t="shared" si="0"/>
         <v>202910.4</v>
       </c>
       <c r="L5">
-        <f>RANK(K5,K:K)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
+        <v>202910.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="83"/>
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -6942,19 +6946,19 @@
       </c>
       <c r="J6" s="49"/>
       <c r="K6">
-        <f>AVERAGE(E6:I6)</f>
+        <f t="shared" si="0"/>
         <v>163992.44</v>
       </c>
       <c r="L6">
-        <f>RANK(K6,K:K)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
+        <v>163992.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="83"/>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -6981,19 +6985,19 @@
       </c>
       <c r="J7" s="49"/>
       <c r="K7">
-        <f>AVERAGE(E7:I7)</f>
+        <f t="shared" si="0"/>
         <v>174511.94</v>
       </c>
       <c r="L7">
-        <f>RANK(K7,K:K)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
+        <v>174511.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="83"/>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -7020,19 +7024,19 @@
       </c>
       <c r="J8" s="49"/>
       <c r="K8">
-        <f>AVERAGE(E8:I8)</f>
+        <f t="shared" si="0"/>
         <v>127726.78</v>
       </c>
       <c r="L8">
-        <f>RANK(K8,K:K)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="M8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+        <v>127726.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="83"/>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -7059,19 +7063,19 @@
       </c>
       <c r="J9" s="49"/>
       <c r="K9">
-        <f>AVERAGE(E9:I9)</f>
+        <f t="shared" si="0"/>
         <v>158950.36600000001</v>
       </c>
       <c r="L9">
-        <f>RANK(K9,K:K)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+        <v>158950.36600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="83"/>
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -7098,19 +7102,19 @@
       </c>
       <c r="J10" s="49"/>
       <c r="K10">
-        <f>AVERAGE(E10:I10)</f>
+        <f t="shared" si="0"/>
         <v>117314.8</v>
       </c>
       <c r="L10">
-        <f>RANK(K10,K:K)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="M10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+        <v>117314.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="83"/>
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -7137,19 +7141,19 @@
       </c>
       <c r="J11" s="49"/>
       <c r="K11">
-        <f>AVERAGE(E11:I11)</f>
+        <f t="shared" si="0"/>
         <v>100547.71799999999</v>
       </c>
       <c r="L11">
-        <f>RANK(K11,K:K)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="M11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
+        <v>100547.71799999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="83"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -7176,19 +7180,19 @@
       </c>
       <c r="J12" s="49"/>
       <c r="K12">
-        <f>AVERAGE(E12:I12)</f>
+        <f t="shared" si="0"/>
         <v>123188.906</v>
       </c>
       <c r="L12">
-        <f>RANK(K12,K:K)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
+        <v>123188.906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="83"/>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -7215,19 +7219,19 @@
       </c>
       <c r="J13" s="49"/>
       <c r="K13">
-        <f>AVERAGE(E13:I13)</f>
+        <f t="shared" si="0"/>
         <v>23948.907999999999</v>
       </c>
       <c r="L13">
-        <f>RANK(K13,K:K)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="M13">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
+        <v>23948.907999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="83"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -7254,19 +7258,19 @@
       </c>
       <c r="J14" s="49"/>
       <c r="K14">
-        <f>AVERAGE(E14:I14)</f>
+        <f t="shared" si="0"/>
         <v>115812.276</v>
       </c>
       <c r="L14">
-        <f>RANK(K14,K:K)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="M14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+        <v>115812.276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="83"/>
       <c r="B15" s="47" t="s">
         <v>145</v>
       </c>
@@ -7293,19 +7297,19 @@
       </c>
       <c r="J15" s="55"/>
       <c r="K15">
-        <f>AVERAGE(E15:I15)</f>
+        <f t="shared" si="0"/>
         <v>191703.092</v>
       </c>
       <c r="L15">
-        <f>RANK(K15,K:K)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
+        <v>191703.092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="83"/>
       <c r="B16" s="48" t="s">
         <v>146</v>
       </c>
@@ -7332,19 +7336,19 @@
       </c>
       <c r="J16" s="55"/>
       <c r="K16">
-        <f>AVERAGE(E16:I16)</f>
+        <f t="shared" si="0"/>
         <v>141491.38400000002</v>
       </c>
       <c r="L16">
-        <f>RANK(K16,K:K)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="M16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
+        <v>141491.38400000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="83"/>
       <c r="B17" s="48" t="s">
         <v>147</v>
       </c>
@@ -7371,19 +7375,19 @@
       </c>
       <c r="J17" s="55"/>
       <c r="K17">
-        <f>AVERAGE(E17:I17)</f>
+        <f t="shared" si="0"/>
         <v>67605.043999999994</v>
       </c>
       <c r="L17">
-        <f>RANK(K17,K:K)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="M17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
+        <v>67605.043999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="83"/>
       <c r="B18" s="47" t="s">
         <v>156</v>
       </c>
@@ -7410,18 +7414,18 @@
       </c>
       <c r="J18" s="55"/>
       <c r="K18">
-        <f>AVERAGE(E18:I18)</f>
+        <f t="shared" si="0"/>
         <v>115396.16800000002</v>
       </c>
       <c r="L18">
-        <f>RANK(K18,K:K)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="M18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>115396.16800000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="54"/>
       <c r="B19" s="47"/>
       <c r="C19">
@@ -7437,15 +7441,15 @@
         <v>190430.85</v>
       </c>
       <c r="L19">
-        <f>RANK(K19,K:K)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="82" t="s">
+        <v>190430.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="83" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
@@ -7473,19 +7477,19 @@
         <v>361477</v>
       </c>
       <c r="J20" s="55"/>
-      <c r="K20" s="98">
+      <c r="K20" s="57">
         <v>190430.85</v>
       </c>
       <c r="L20">
-        <f>RANK(K20,K:K)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
+        <v>190430.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="83"/>
       <c r="B21" t="s">
         <v>76</v>
       </c>
@@ -7516,15 +7520,15 @@
         <v>107153.046</v>
       </c>
       <c r="L21">
-        <f>RANK(K21,K:K)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="M21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
+        <v>107153.046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="83"/>
       <c r="B22" t="s">
         <v>77</v>
       </c>
@@ -7555,15 +7559,15 @@
         <v>89190.928</v>
       </c>
       <c r="L22">
-        <f>RANK(K22,K:K)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="M22">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
+        <v>89190.928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="83"/>
       <c r="B23" s="47" t="s">
         <v>154</v>
       </c>
@@ -7594,15 +7598,15 @@
         <v>40411.471999999994</v>
       </c>
       <c r="L23">
-        <f>RANK(K23,K:K)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M23">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
+        <v>40411.471999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="83"/>
       <c r="B24" s="48" t="s">
         <v>155</v>
       </c>
@@ -7633,15 +7637,15 @@
         <v>26706.346000000001</v>
       </c>
       <c r="L24">
-        <f>RANK(K24,K:K)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="M24">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
+        <v>26706.346000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="83"/>
       <c r="B25" t="s">
         <v>136</v>
       </c>
@@ -7655,15 +7659,15 @@
         <v>141160</v>
       </c>
       <c r="L25">
-        <f>RANK(K25,K:K)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
+        <v>141160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="83"/>
       <c r="B26" t="s">
         <v>137</v>
       </c>
@@ -7677,15 +7681,15 @@
         <v>141160</v>
       </c>
       <c r="L26">
-        <f>RANK(K26,K:K)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
+        <v>141160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="83"/>
       <c r="B27" t="s">
         <v>138</v>
       </c>
@@ -7699,15 +7703,15 @@
         <v>141160</v>
       </c>
       <c r="L27">
-        <f>RANK(K27,K:K)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="M27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
+        <v>141160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="83" t="s">
         <v>71</v>
       </c>
       <c r="B28" t="s">
@@ -7735,19 +7739,19 @@
         <v>82617</v>
       </c>
       <c r="K28">
-        <f>AVERAGE(E28:I28)</f>
+        <f t="shared" ref="K28:K46" si="2">AVERAGE(E28:I28)</f>
         <v>37942.6</v>
       </c>
       <c r="L28">
-        <f>RANK(K28,K:K)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M28">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+        <v>37942.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="83"/>
       <c r="B29" t="s">
         <v>53</v>
       </c>
@@ -7773,19 +7777,19 @@
         <v>88786</v>
       </c>
       <c r="K29">
-        <f>AVERAGE(E29:I29)</f>
+        <f t="shared" si="2"/>
         <v>153290.6</v>
       </c>
       <c r="L29">
-        <f>RANK(K29,K:K)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
+        <v>153290.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="83"/>
       <c r="B30" t="s">
         <v>54</v>
       </c>
@@ -7811,19 +7815,19 @@
         <v>148627</v>
       </c>
       <c r="K30">
-        <f>AVERAGE(E30:I30)</f>
+        <f t="shared" si="2"/>
         <v>168930</v>
       </c>
       <c r="L30">
-        <f>RANK(K30,K:K)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
+        <v>168930</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="83"/>
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -7849,19 +7853,19 @@
         <v>37000</v>
       </c>
       <c r="K31">
-        <f>AVERAGE(E31:I31)</f>
+        <f t="shared" si="2"/>
         <v>33326.199999999997</v>
       </c>
       <c r="L31">
-        <f>RANK(K31,K:K)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="M31">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="82" t="s">
+        <v>33326.199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="83" t="s">
         <v>57</v>
       </c>
       <c r="B32" t="s">
@@ -7889,19 +7893,19 @@
         <v>151149</v>
       </c>
       <c r="K32">
-        <f>AVERAGE(E32:I32)</f>
+        <f t="shared" si="2"/>
         <v>195702.2</v>
       </c>
       <c r="L32">
-        <f>RANK(K32,K:K)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
+        <v>195702.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="83"/>
       <c r="B33" t="s">
         <v>77</v>
       </c>
@@ -7927,19 +7931,19 @@
         <v>118037</v>
       </c>
       <c r="K33">
-        <f>AVERAGE(E33:I33)</f>
+        <f t="shared" si="2"/>
         <v>128502.2</v>
       </c>
       <c r="L33">
-        <f>RANK(K33,K:K)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="M33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
+        <v>128502.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="83"/>
       <c r="B34" t="s">
         <v>59</v>
       </c>
@@ -7965,19 +7969,19 @@
         <v>79695</v>
       </c>
       <c r="K34">
-        <f>AVERAGE(E34:I34)</f>
+        <f t="shared" si="2"/>
         <v>119205.4</v>
       </c>
       <c r="L34">
-        <f>RANK(K34,K:K)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="M34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
+        <v>119205.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="83"/>
       <c r="B35" t="s">
         <v>80</v>
       </c>
@@ -8003,19 +8007,19 @@
         <v>132642</v>
       </c>
       <c r="K35">
-        <f>AVERAGE(E35:I35)</f>
+        <f t="shared" si="2"/>
         <v>137977</v>
       </c>
       <c r="L35">
-        <f>RANK(K35,K:K)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="M35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
+        <v>137977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="83"/>
       <c r="B36" t="s">
         <v>81</v>
       </c>
@@ -8041,19 +8045,19 @@
         <v>63972</v>
       </c>
       <c r="K36">
-        <f>AVERAGE(E36:I36)</f>
+        <f t="shared" si="2"/>
         <v>66322</v>
       </c>
       <c r="L36">
-        <f>RANK(K36,K:K)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="M36">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
+        <v>66322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="83"/>
       <c r="B37" t="s">
         <v>44</v>
       </c>
@@ -8079,19 +8083,19 @@
         <v>34949</v>
       </c>
       <c r="K37">
-        <f>AVERAGE(E37:I37)</f>
+        <f t="shared" si="2"/>
         <v>49387.4</v>
       </c>
       <c r="L37">
-        <f>RANK(K37,K:K)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="82" t="s">
+        <v>49387.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="83" t="s">
         <v>140</v>
       </c>
       <c r="B38" t="s">
@@ -8119,19 +8123,19 @@
         <v>14374</v>
       </c>
       <c r="K38">
-        <f>AVERAGE(E38:I38)</f>
+        <f t="shared" si="2"/>
         <v>26983</v>
       </c>
       <c r="L38">
-        <f>RANK(K38,K:K)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="M38">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
+        <v>26983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="83"/>
       <c r="B39" t="s">
         <v>139</v>
       </c>
@@ -8157,19 +8161,19 @@
         <v>14384</v>
       </c>
       <c r="K39">
-        <f>AVERAGE(E39:I39)</f>
+        <f t="shared" si="2"/>
         <v>33768.400000000001</v>
       </c>
       <c r="L39">
-        <f>RANK(K39,K:K)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="M39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
+        <v>33768.400000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="83"/>
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -8195,19 +8199,19 @@
         <v>17252</v>
       </c>
       <c r="K40">
-        <f>AVERAGE(E40:I40)</f>
+        <f t="shared" si="2"/>
         <v>22132</v>
       </c>
       <c r="L40">
-        <f>RANK(K40,K:K)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="M40">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
+        <v>22132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="83"/>
       <c r="B41" t="s">
         <v>65</v>
       </c>
@@ -8233,19 +8237,19 @@
         <v>15637</v>
       </c>
       <c r="K41">
-        <f>AVERAGE(E41:I41)</f>
+        <f t="shared" si="2"/>
         <v>33052.199999999997</v>
       </c>
       <c r="L41">
-        <f>RANK(K41,K:K)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
+        <v>33052.199999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="83"/>
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -8271,19 +8275,19 @@
         <v>37728</v>
       </c>
       <c r="K42">
-        <f>AVERAGE(E42:I42)</f>
+        <f t="shared" si="2"/>
         <v>54008.800000000003</v>
       </c>
       <c r="L42">
-        <f>RANK(K42,K:K)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="M42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
+        <v>54008.800000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="83"/>
       <c r="B43" t="s">
         <v>59</v>
       </c>
@@ -8309,19 +8313,19 @@
         <v>37647</v>
       </c>
       <c r="K43">
-        <f>AVERAGE(E43:I43)</f>
+        <f t="shared" si="2"/>
         <v>37000.6</v>
       </c>
       <c r="L43">
-        <f>RANK(K43,K:K)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M43">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
+        <v>37000.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="83"/>
       <c r="B44" t="s">
         <v>36</v>
       </c>
@@ -8347,19 +8351,19 @@
         <v>76972</v>
       </c>
       <c r="K44">
-        <f>AVERAGE(E44:I44)</f>
+        <f t="shared" si="2"/>
         <v>97213.4</v>
       </c>
       <c r="L44">
-        <f>RANK(K44,K:K)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="M44">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
+        <v>97213.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="83"/>
       <c r="B45" t="s">
         <v>54</v>
       </c>
@@ -8385,19 +8389,19 @@
         <v>62558</v>
       </c>
       <c r="K45">
-        <f>AVERAGE(E45:I45)</f>
+        <f t="shared" si="2"/>
         <v>69154.2</v>
       </c>
       <c r="L45">
-        <f>RANK(K45,K:K)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="82"/>
+        <v>69154.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="83"/>
       <c r="B46" t="s">
         <v>82</v>
       </c>
@@ -8423,15 +8427,15 @@
         <v>16999</v>
       </c>
       <c r="K46">
-        <f>AVERAGE(E46:I46)</f>
+        <f t="shared" si="2"/>
         <v>31809.599999999999</v>
       </c>
       <c r="L46">
-        <f>RANK(K46,K:K)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>31809.599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8455,9 +8459,9 @@
       <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -8465,7 +8469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -8473,7 +8477,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8493,20 +8497,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -8527,7 +8531,7 @@
         <v>181030</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -8548,7 +8552,7 @@
         <v>199361</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -8569,7 +8573,7 @@
         <v>310291</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>350558</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>243251</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -8632,7 +8636,7 @@
         <v>237469</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>300870</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>416595</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>381771</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -8716,7 +8720,7 @@
         <v>554020</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -8737,12 +8741,12 @@
         <v>258031</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
@@ -8763,7 +8767,7 @@
         <v>19707</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
@@ -8784,12 +8788,12 @@
         <v>357030</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B23" s="17" t="s">
         <v>52</v>
       </c>
@@ -8803,7 +8807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24">
         <f>AVERAGE(B7:B20)</f>
         <v>25877.615384615383</v>
@@ -8835,9 +8839,9 @@
       <selection activeCell="E6" sqref="E6:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -8845,7 +8849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -8853,7 +8857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -8887,7 +8891,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -8896,7 +8900,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -8919,7 +8923,7 @@
         <v>17857</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -8938,7 +8942,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -8955,7 +8959,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>31416</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>57270</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
@@ -9024,7 +9028,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -9047,7 +9051,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -9070,7 +9074,7 @@
         <v>41818</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -9093,7 +9097,7 @@
         <v>78258</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -9116,7 +9120,7 @@
         <v>63129</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>49879</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -9162,7 +9166,7 @@
         <v>20722</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
@@ -9183,7 +9187,7 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>34949</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
@@ -9217,8 +9221,8 @@
       <c r="F20" s="24"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
         <v>58</v>
       </c>
@@ -9238,7 +9242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B25">
         <f>AVERAGE(B6:B19)</f>
         <v>152406.07142857142</v>
@@ -9278,9 +9282,9 @@
       <selection activeCell="B9" sqref="B9:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -9288,7 +9292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -9345,7 +9349,7 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -9357,7 +9361,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -9371,7 +9375,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -9385,7 +9389,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -9399,7 +9403,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -9433,7 +9437,7 @@
         <v>345015</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -9467,7 +9471,7 @@
         <v>493142</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
@@ -9499,7 +9503,7 @@
         <v>279419</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -9531,7 +9535,7 @@
         <v>227177</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -9565,7 +9569,7 @@
         <v>223732</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>600290</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -9633,7 +9637,7 @@
         <v>437664</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -9667,7 +9671,7 @@
         <v>367739</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -9701,7 +9705,7 @@
         <v>171909</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
@@ -9735,7 +9739,7 @@
         <v>26963</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -9771,7 +9775,7 @@
         <v>293551</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
@@ -9807,8 +9811,8 @@
         <v>165563</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="39" t="s">
         <v>70</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B24" s="42">
         <f>AVERAGE(B9:B20)</f>
         <v>26058.083333333332</v>
